--- a/assets/disciplinas/LOM3004.xlsx
+++ b/assets/disciplinas/LOM3004.xlsx
@@ -28,7 +28,7 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Processamento de Materiais Metálicos I</t>
+    <t xml:space="preserve"> Processamento de Materiais Metálicos II</t>
   </si>
   <si>
     <t>Name:</t>

--- a/assets/disciplinas/LOM3004.xlsx
+++ b/assets/disciplinas/LOM3004.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>

--- a/assets/disciplinas/LOM3004.xlsx
+++ b/assets/disciplinas/LOM3004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1. Descrever os principais processos de conformação mecânica utilizados na indústria metal mecânica.2. Munir o aluno de conhecimentos suficientes para especificar equipamentos e acessórios, usados no processo de conformação, com base nas solicitações mecânicas e variáveis do processo. 3. Ensinar ao aluno a definir tecnicamente o processo adequado de conformação mecânica de produtos da indústria metal mecânica.</t>
+    <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840793 - Sérgio Schneider</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Introdução à Teoria de Plasticidade.2. Classificação dos Processos de Conformação Mecânica.3. Metalurgia da Conformação Mecânica.4. Mecânica da Conformação: Forjamento, Trefilação, Extrusão, Laminação, Dobramento e Estampagem.5. Descrição dos Processos de Conformação Plástica6. Processamento de Chapas Metálicas: Estampagem, Dobramento, Calandragem e corte.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Introdução à Teoria de Plasticidade: Análise de tensão e deformação 3D, tensões principais, critérios de escoamento, relação tensão-deformação no regime plástico, tensão efetiva e deformação efetiva, energia de deformação e trabalho plástico. 2) Classificação dos processos de conformação. Forjamento, Trefilação, Extrusão Laminação, Estiramento, Estampagem e Dobramento. 3) Metalurgia da Conformação: Noções básicas sobre recozimento, encruamento, conformabilidade, textura e anisotropia. Trabalho a frio e a quente.4) Mecânica da Conformação: métodos de cálculo, efeitos do atrito na conformação e noções básicas de lubrificação. Efeito da taxa de deformação. 5) Descrição dos Processos de Conformação Plástica. Forjamento: Trefilação, Extrusão e Laminação. Equipamentos e acessórios: características e noções de projeto e dimensionamento dos mesmos. Cálculo de carga desses processos.  Análise de defeitos que podem ocorrer nesses processos. Relações geométricas na laminação. Potência e torque de laminação.  6) Processamento de Chapas Metálica. Estampagem: Ensaios de Estampabilidade, Curva Limite de Conformação (CLC). Dobramento: tipos de dobramento, efeito mola, equipamentos e matrizes. Calandragem: tipos de calandragem e equipamentos. Corte: equipamentos de corte e aplicações.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NS = (P1 + P2)/2Serão considerados aprovados os alunos que obtiverem: NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma:NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>.  LARKE, E.C. The Rolling of Strip, Sheet, and Plate, Chapman and Hall, 19672.  HONEYCOMBE, R.W.K. The Plastic Deformation of Metals, Edward Arnold, 1968.3.  HOSFORD, W.F. Metal Forming: Mechanics and Metallurgy, Prentice-Hall, 1983. 4.  WEERTMAN, J. Elementary Dislocation Theory, Collier-McMillan, 1965. 5.  AVITZUR, B. Metal Forming: Processes and Analysis, McGraw-Hill, 1968.6. BRESCIANI Filho, E. e outros. Conformação Plástica dos Metais, Editora da UNICAMP           Campinas, Volumes 1 e 2, 1986. 7. CETLIN, P. R.; HELMAN, H. Fundamentos de Conformação Mecânica dos Metais. Art Liber: São Paulo, 2005.8. ROWE, G.W. Elements of Metalworking Theory. Edward Arnold Publishers, 1979.9.  JOHNSON, W.; MELLOR, P.B. Engineering Plasticity, Van Nostrand Reinhold, 1973. 10. DIETER, G. E. Metalurgia Mecânica. Guanabara Dois, 1981.11. SCHAEFFER, L. Introdução à Conformação Mecânica dos Metais, Ed. da UFRGS, 1983. 12. RODRIGUES, J. Tecnologia Mecânica. Volumes 1 e 2, Ed. Escolar, 2005. 13. CALLISTER, W. D. Ciência e Engenharia dos Materiais: Uma Introdução. Rio de Janeiro: LTC, 1999.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3004.xlsx
+++ b/assets/disciplinas/LOM3004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>1. Descrever os principais processos de conformação mecânica utilizados na indústria metal mecânica.2. Munir o aluno de conhecimentos suficientes para especificar equipamentos e acessórios, usados no processo de conformação, com base nas solicitações mecânicas e variáveis do processo. 3. Ensinar ao aluno a definir tecnicamente o processo adequado de conformação mecânica de produtos da indústria metal mecânica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Introdução à Teoria de Plasticidade.2. Classificação dos Processos de Conformação Mecânica.3. Metalurgia da Conformação Mecânica.4. Mecânica da Conformação: Forjamento, Trefilação, Extrusão, Laminação, Dobramento e Estampagem.5. Descrição dos Processos de Conformação Plástica6. Processamento de Chapas Metálicas: Estampagem, Dobramento, Calandragem e corte.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Introdução à Teoria de Plasticidade: Análise de tensão e deformação 3D, tensões principais, critérios de escoamento, relação tensão-deformação no regime plástico, tensão efetiva e deformação efetiva, energia de deformação e trabalho plástico. 2) Classificação dos processos de conformação. Forjamento, Trefilação, Extrusão Laminação, Estiramento, Estampagem e Dobramento. 3) Metalurgia da Conformação: Noções básicas sobre recozimento, encruamento, conformabilidade, textura e anisotropia. Trabalho a frio e a quente.4) Mecânica da Conformação: métodos de cálculo, efeitos do atrito na conformação e noções básicas de lubrificação. Efeito da taxa de deformação. 5) Descrição dos Processos de Conformação Plástica. Forjamento: Trefilação, Extrusão e Laminação. Equipamentos e acessórios: características e noções de projeto e dimensionamento dos mesmos. Cálculo de carga desses processos.  Análise de defeitos que podem ocorrer nesses processos. Relações geométricas na laminação. Potência e torque de laminação.  6) Processamento de Chapas Metálica. Estampagem: Ensaios de Estampabilidade, Curva Limite de Conformação (CLC). Dobramento: tipos de dobramento, efeito mola, equipamentos e matrizes. Calandragem: tipos de calandragem e equipamentos. Corte: equipamentos de corte e aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2).</t>
+    <t>NS = (P1 + P2)/2Serão considerados aprovados os alunos que obtiverem: NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NS = (P1 + P2)/2Serão considerados aprovados os alunos que obtiverem: NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
+    <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma:NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma:NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
+    <t>.  LARKE, E.C. The Rolling of Strip, Sheet, and Plate, Chapman and Hall, 19672.  HONEYCOMBE, R.W.K. The Plastic Deformation of Metals, Edward Arnold, 1968.3.  HOSFORD, W.F. Metal Forming: Mechanics and Metallurgy, Prentice-Hall, 1983. 4.  WEERTMAN, J. Elementary Dislocation Theory, Collier-McMillan, 1965. 5.  AVITZUR, B. Metal Forming: Processes and Analysis, McGraw-Hill, 1968.6. BRESCIANI Filho, E. e outros. Conformação Plástica dos Metais, Editora da UNICAMP           Campinas, Volumes 1 e 2, 1986. 7. CETLIN, P. R.; HELMAN, H. Fundamentos de Conformação Mecânica dos Metais. Art Liber: São Paulo, 2005.8. ROWE, G.W. Elements of Metalworking Theory. Edward Arnold Publishers, 1979.9.  JOHNSON, W.; MELLOR, P.B. Engineering Plasticity, Van Nostrand Reinhold, 1973. 10. DIETER, G. E. Metalurgia Mecânica. Guanabara Dois, 1981.11. SCHAEFFER, L. Introdução à Conformação Mecânica dos Metais, Ed. da UFRGS, 1983. 12. RODRIGUES, J. Tecnologia Mecânica. Volumes 1 e 2, Ed. Escolar, 2005. 13. CALLISTER, W. D. Ciência e Engenharia dos Materiais: Uma Introdução. Rio de Janeiro: LTC, 1999.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
